--- a/GREAT/GREAT-Repeated-Example.xlsx
+++ b/GREAT/GREAT-Repeated-Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/GREAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{DA7D217A-2963-455F-ACA1-61BC6B3F8780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EBEDAC9-EEB7-47C9-8A40-F294B8379C45}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9C334795-11BC-4225-8DE6-12261517B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B8E023-FC9F-4EAA-9986-29A6FBC256AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="6" r:id="rId1"/>
@@ -414,37 +414,37 @@
     <t>Student 25</t>
   </si>
   <si>
-    <t xml:space="preserve">   D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-</t>
-  </si>
-  <si>
     <t xml:space="preserve">   A</t>
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>C-</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>A-</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -1073,6 +1082,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1080,18 +1092,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1801,31 +1801,31 @@
                   <c:v>F</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>   D</c:v>
+                  <c:v>D</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>   D+</c:v>
+                  <c:v>D+</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>   C-</c:v>
+                  <c:v>C-</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>   C</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>   C+</c:v>
+                  <c:v>C+</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>   B-</c:v>
+                  <c:v>B-</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>   B</c:v>
+                  <c:v>B</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>   B+</c:v>
+                  <c:v>B+</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>   A-</c:v>
+                  <c:v>A-</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>   A</c:v>
@@ -2115,9 +2115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2155,9 +2155,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,26 +2190,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2242,26 +2225,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2438,7 +2404,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2452,64 +2418,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="K2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
     </row>
     <row r="4" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="K4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
     </row>
     <row r="5" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -2548,7 +2514,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="76" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2669,7 +2635,7 @@
       <c r="B34" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertHyperlinks="0" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" insertHyperlinks="0"/>
   <mergeCells count="6">
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K3:Q3"/>
@@ -2697,7 +2663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2721,23 +2687,23 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="K2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
@@ -2808,15 +2774,15 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="K6" s="63" t="s">
         <v>100</v>
       </c>
@@ -2837,15 +2803,15 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
       <c r="K7" s="63" t="s">
         <v>101</v>
       </c>
@@ -2866,13 +2832,13 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="K8" s="63" t="s">
         <v>102</v>
       </c>
@@ -2920,15 +2886,15 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="K10" s="63" t="s">
         <v>104</v>
       </c>
@@ -2949,15 +2915,15 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
       <c r="K11" s="63" t="s">
         <v>105</v>
       </c>
@@ -2978,13 +2944,13 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
       <c r="K12" s="63" t="s">
         <v>106</v>
       </c>
@@ -3005,13 +2971,13 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
       <c r="K13" s="63" t="s">
         <v>107</v>
       </c>
@@ -3032,13 +2998,13 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
       <c r="K14" s="63" t="s">
         <v>108</v>
       </c>
@@ -3149,16 +3115,16 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="36" t="s">
         <v>26</v>
       </c>
@@ -3182,16 +3148,16 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="62" t="s">
         <v>78</v>
       </c>
@@ -3215,16 +3181,16 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="64" t="s">
         <v>81</v>
       </c>
@@ -3248,16 +3214,16 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="64" t="s">
         <v>84</v>
       </c>
@@ -3281,16 +3247,16 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="64" t="s">
         <v>87</v>
       </c>
@@ -3314,16 +3280,16 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86" t="s">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="65" t="s">
         <v>90</v>
       </c>
@@ -3367,16 +3333,16 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91" t="s">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
       <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
@@ -3400,16 +3366,16 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90" t="s">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="62">
         <v>0</v>
       </c>
@@ -3433,16 +3399,16 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="64">
         <v>1</v>
       </c>
@@ -3466,16 +3432,16 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
       <c r="H29" s="64">
         <v>2</v>
       </c>
@@ -3499,16 +3465,16 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85" t="s">
+      <c r="C30" s="88"/>
+      <c r="D30" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="64">
         <v>3</v>
       </c>
@@ -3520,12 +3486,12 @@
       <c r="P30" s="64"/>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="88"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
       <c r="H31" s="65"/>
       <c r="K31" s="66"/>
       <c r="L31" s="8"/>
@@ -4199,7 +4165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:P194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4214,23 +4180,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="K2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
@@ -7626,7 +7592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291F618B-F7F3-478C-BB6A-4A41D6C7DB23}">
   <dimension ref="A2:O101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7643,24 +7609,24 @@
   <sheetData>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -7700,10 +7666,10 @@
       <c r="E6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="96"/>
       <c r="H6"/>
       <c r="K6" s="6" t="s">
         <v>6</v>
@@ -7732,11 +7698,11 @@
         <f>IFERROR(AVERAGE(M7:M101),"")</f>
         <v>71.466666666666669</v>
       </c>
-      <c r="F7" s="93" t="str">
+      <c r="F7" s="97" t="str">
         <f>IFERROR(LOOKUP(E7,$D$15:D$19,$B$15:$B$19),"")</f>
         <v>Satisfactory</v>
       </c>
-      <c r="G7" s="93"/>
+      <c r="G7" s="97"/>
       <c r="H7"/>
       <c r="K7" s="2" t="str">
         <f>IF(Data!K5&lt;&gt;"",Data!K5,"")</f>
@@ -7769,11 +7735,11 @@
         <f>IFERROR(MEDIAN(M6:M100),"")</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="F8" s="94" t="str">
+      <c r="F8" s="98" t="str">
         <f>IFERROR(LOOKUP(E8,$D$15:D$19,$B$15:$B$19),"")</f>
         <v>Satisfactory</v>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="98"/>
       <c r="H8"/>
       <c r="K8" s="2" t="str">
         <f>IF(Data!K6&lt;&gt;"",Data!K6,"")</f>
@@ -7806,11 +7772,11 @@
         <f t="array" ref="E9">IF(M$7:M$101="","",MIN(M$7:M$101))</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="F9" s="94" t="str">
+      <c r="F9" s="98" t="str">
         <f>IFERROR(LOOKUP(E9,$D$15:D$19,$B$15:$B$19),"")</f>
         <v>Unacceptable</v>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="98"/>
       <c r="H9"/>
       <c r="K9" s="2" t="str">
         <f>IF(Data!K7&lt;&gt;"",Data!K7,"")</f>
@@ -7970,7 +7936,7 @@
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="73">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIFS($N$7:$N$101,$B15))</f>
         <v>2</v>
       </c>
@@ -8009,7 +7975,7 @@
       <c r="D16" s="24">
         <v>33.332999999999998</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="74">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIFS($N$7:$N$101,$B16))</f>
         <v>8</v>
       </c>
@@ -8048,7 +8014,7 @@
       <c r="D17" s="24">
         <v>66.665999999999997</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="74">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIFS($N$7:$N$101,$B17))</f>
         <v>9</v>
       </c>
@@ -8087,7 +8053,7 @@
       <c r="D18" s="24">
         <v>100</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="74">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIFS($N$7:$N$101,$B18))</f>
         <v>6</v>
       </c>
@@ -8123,7 +8089,7 @@
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="98" t="str">
+      <c r="E19" s="75" t="str">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIFS($N$7:$N$101,$B19))</f>
         <v/>
       </c>
@@ -9683,8 +9649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9699,25 +9665,25 @@
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9805,7 +9771,7 @@
       </c>
       <c r="F7" s="50" t="str">
         <f>IFERROR(LOOKUP(E7,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   C-</v>
+        <v>C-</v>
       </c>
       <c r="K7" s="55" t="str">
         <f>IF(Data!K5&lt;&gt;"",Data!K5,"")</f>
@@ -9840,7 +9806,7 @@
       </c>
       <c r="F8" s="51" t="str">
         <f>IFERROR(LOOKUP(E8,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   C</v>
+        <v>C</v>
       </c>
       <c r="K8" s="56" t="str">
         <f>IF(Data!K6&lt;&gt;"",Data!K6,"")</f>
@@ -9856,7 +9822,7 @@
       </c>
       <c r="N8" s="51" t="str">
         <f>IFERROR(LOOKUP(M8,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9891,7 +9857,7 @@
       </c>
       <c r="N9" s="51" t="str">
         <f>IFERROR(LOOKUP(M9,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   C</v>
+        <v>C</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9945,7 +9911,7 @@
       </c>
       <c r="N11" s="51" t="str">
         <f>IFERROR(LOOKUP(M11,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
@@ -9986,7 +9952,7 @@
       </c>
       <c r="N13" s="51" t="str">
         <f>IFERROR(LOOKUP(M13,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10021,19 +9987,19 @@
       </c>
       <c r="N14" s="51" t="str">
         <f>IFERROR(LOOKUP(M14,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="68" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="26">
         <v>0</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="73">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIF($N$7:$N$107,B15))</f>
         <v>5</v>
       </c>
@@ -10059,19 +10025,19 @@
       </c>
       <c r="N15" s="51" t="str">
         <f>IFERROR(LOOKUP(M15,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   B</v>
+        <v>B</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="24">
         <v>59.5</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="74">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIF($N$7:$N$107,B16))</f>
         <v>7</v>
       </c>
@@ -10103,13 +10069,13 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="24">
         <v>67.5</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="74">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIF($N$7:$N$107,B17))</f>
         <v>0</v>
       </c>
@@ -10141,13 +10107,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="24">
         <v>69.5</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="74">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIF($N$7:$N$107,B18))</f>
         <v>0</v>
       </c>
@@ -10178,13 +10144,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="24">
         <v>72.5</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="74">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIF($N$7:$N$107,B19))</f>
         <v>2</v>
       </c>
@@ -10215,13 +10181,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="24">
         <v>77.5</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="74">
         <f t="array" ref="E20">IF(OR($B20="",$D20=""),"",COUNTIF($N$7:$N$107,B20))</f>
         <v>0</v>
       </c>
@@ -10252,13 +10218,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="24">
         <v>79.5</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="74">
         <f t="array" ref="E21">IF(OR($B21="",$D21=""),"",COUNTIF($N$7:$N$107,B21))</f>
         <v>2</v>
       </c>
@@ -10284,18 +10250,18 @@
       </c>
       <c r="N21" s="51" t="str">
         <f>IFERROR(LOOKUP(M21,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   B-</v>
+        <v>B-</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="24">
         <v>82.5</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="74">
         <f t="array" ref="E22">IF(OR($B22="",$D22=""),"",COUNTIF($N$7:$N$107,B22))</f>
         <v>2</v>
       </c>
@@ -10326,13 +10292,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="24">
         <v>87.5</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="74">
         <f t="array" ref="E23">IF(OR($B23="",$D23=""),"",COUNTIF($N$7:$N$107,B23))</f>
         <v>0</v>
       </c>
@@ -10358,18 +10324,18 @@
       </c>
       <c r="N23" s="51" t="str">
         <f>IFERROR(LOOKUP(M23,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   B</v>
+        <v>B</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="24">
         <v>89.5</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="74">
         <f t="array" ref="E24">IF(OR($B24="",$D24=""),"",COUNTIF($N$7:$N$107,B24))</f>
         <v>0</v>
       </c>
@@ -10395,18 +10361,18 @@
       </c>
       <c r="N24" s="51" t="str">
         <f>IFERROR(LOOKUP(M24,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   B-</v>
+        <v>B-</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="27">
         <v>92.5</v>
       </c>
-      <c r="E25" s="98">
+      <c r="E25" s="75">
         <f t="array" ref="E25">IF(OR($B25="",$D25=""),"",COUNTIF($N$7:$N$107,B25))</f>
         <v>7</v>
       </c>
@@ -10432,7 +10398,7 @@
       </c>
       <c r="N25" s="51" t="str">
         <f>IFERROR(LOOKUP(M25,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10485,7 +10451,7 @@
       </c>
       <c r="N27" s="51" t="str">
         <f>IFERROR(LOOKUP(M27,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   C</v>
+        <v>C</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
@@ -10506,7 +10472,7 @@
       </c>
       <c r="N28" s="51" t="str">
         <f>IFERROR(LOOKUP(M28,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -10560,7 +10526,7 @@
       </c>
       <c r="N31" s="51" t="str">
         <f>IFERROR(LOOKUP(M31,$D$15:D$25,$B$15:$B$25),"")</f>
-        <v xml:space="preserve">   D</v>
+        <v>D</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">

--- a/GREAT/GREAT-Repeated-Example.xlsx
+++ b/GREAT/GREAT-Repeated-Example.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9C334795-11BC-4225-8DE6-12261517B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B8E023-FC9F-4EAA-9986-29A6FBC256AC}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9C334795-11BC-4225-8DE6-12261517B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946AD330-B879-4F82-94EF-97F612FF99F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="6" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Details" sheetId="4" r:id="rId3"/>
+    <sheet name="Performance" sheetId="4" r:id="rId3"/>
     <sheet name="Assessment" sheetId="7" r:id="rId4"/>
     <sheet name="Grading" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>Percent</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Provides analyses aggregated across the learning outcomes</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/GREAT</t>
-  </si>
-  <si>
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Data:</t>
   </si>
   <si>
-    <t>Details:</t>
-  </si>
-  <si>
     <t>Assessment:</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Analyses of the Overall Grades</t>
   </si>
   <si>
-    <t>Version: 2.211231</t>
-  </si>
-  <si>
     <t>Min %</t>
   </si>
   <si>
@@ -445,6 +436,18 @@
   </si>
   <si>
     <t>A-</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/blob/main/GREAT/Wendorf-EmbeddedAssessmentMethodology.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/GREAT</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
+  </si>
+  <si>
+    <t>Performance:</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +508,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -536,6 +540,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1015,8 +1027,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1028,8 +1040,35 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1054,33 +1093,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,7 +1157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$D$22</c:f>
+              <c:f>Performance!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1157,7 +1169,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1177,7 +1189,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$D$23:$D$27</c:f>
+              <c:f>Performance!$D$23:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1210,7 +1222,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$E$22</c:f>
+              <c:f>Performance!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1222,7 +1234,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1242,7 +1254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$E$23:$E$27</c:f>
+              <c:f>Performance!$E$23:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1275,7 +1287,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$F$22</c:f>
+              <c:f>Performance!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1287,7 +1299,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1307,7 +1319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$F$23:$F$27</c:f>
+              <c:f>Performance!$F$23:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1340,7 +1352,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$G$22</c:f>
+              <c:f>Performance!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1352,7 +1364,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1372,7 +1384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$G$23:$G$27</c:f>
+              <c:f>Performance!$G$23:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1405,7 +1417,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$H$22</c:f>
+              <c:f>Performance!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1418,7 +1430,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1438,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$H$23:$H$27</c:f>
+              <c:f>Performance!$H$23:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2114,6 +2126,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2404,7 +2420,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,7 +2435,7 @@
   <sheetData>
     <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" s="79" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
@@ -2448,7 +2464,7 @@
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
       <c r="K3" s="78" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="L3" s="78"/>
       <c r="M3" s="78"/>
@@ -2468,7 +2484,7 @@
       <c r="G4" s="78"/>
       <c r="H4" s="78"/>
       <c r="K4" s="77" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="L4" s="78"/>
       <c r="M4" s="78"/>
@@ -2491,7 +2507,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -2502,7 +2518,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -2510,12 +2526,12 @@
         <v>34</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K10" s="76" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2539,7 @@
     </row>
     <row r="12" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -2531,7 +2547,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>15</v>
@@ -2542,7 +2558,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>21</v>
@@ -2553,7 +2569,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>23</v>
@@ -2564,32 +2580,32 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -2597,23 +2613,23 @@
         <v>31</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>38</v>
+      <c r="K24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -2648,11 +2664,10 @@
     <hyperlink ref="K4" r:id="rId1" xr:uid="{5067229E-0EE1-4218-AFF0-ED6C983AE781}"/>
     <hyperlink ref="K18" r:id="rId2" xr:uid="{CD0A4350-DE8E-46D2-A642-B0C8510F006B}"/>
     <hyperlink ref="K17" r:id="rId3" xr:uid="{8A2E7B4E-E341-418D-A436-2CB9DA7214DB}"/>
-    <hyperlink ref="K24" r:id="rId4" xr:uid="{0034B066-EB4E-4954-894C-0337337A014E}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{61640C1B-E51E-4C16-9547-578D351153D9}"/>
+    <hyperlink ref="K10" r:id="rId4" xr:uid="{D6A79277-850E-4DD6-B73D-D1657B439457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;LGREAT: Grading and Embedded Assessment Tool&amp;RDesign: Single Factor, Within-Subjects</oddHeader>
   </headerFooter>
@@ -2687,23 +2702,23 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="K2" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="B2" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
@@ -2715,7 +2730,7 @@
     </row>
     <row r="4" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2755,7 +2770,7 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="K5" s="61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
@@ -2774,17 +2789,17 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
+      <c r="B6" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
       <c r="K6" s="63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" s="8">
         <v>3</v>
@@ -2803,17 +2818,17 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="B7" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="K7" s="63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L7" s="8">
         <v>2</v>
@@ -2832,15 +2847,15 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
       <c r="K8" s="63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L8" s="8">
         <v>3</v>
@@ -2867,7 +2882,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="K9" s="63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L9" s="8">
         <v>3</v>
@@ -2886,17 +2901,17 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
+      <c r="B10" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="K10" s="63" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" s="8">
         <v>3</v>
@@ -2915,17 +2930,17 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="K11" s="63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L11" s="8">
         <v>3</v>
@@ -2944,15 +2959,15 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="K12" s="63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12" s="8">
         <v>3</v>
@@ -2971,15 +2986,15 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="K13" s="63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L13" s="8">
         <v>3</v>
@@ -2998,15 +3013,15 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
       <c r="K14" s="63" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L14" s="8">
         <v>2</v>
@@ -3026,7 +3041,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K15" s="63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L15" s="8">
         <v>3</v>
@@ -3046,7 +3061,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="K16" s="63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L16" s="8">
         <v>3</v>
@@ -3066,13 +3081,13 @@
     </row>
     <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="K17" s="63" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L17" s="8">
         <v>1</v>
@@ -3096,7 +3111,7 @@
       <c r="D18"/>
       <c r="E18"/>
       <c r="K18" s="63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L18" s="8">
         <v>3</v>
@@ -3115,21 +3130,21 @@
       </c>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
+      <c r="B19" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="36" t="s">
         <v>26</v>
       </c>
       <c r="K19" s="63" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L19" s="8">
         <v>2</v>
@@ -3148,54 +3163,54 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="8">
+        <v>3</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3</v>
+      </c>
+      <c r="N20" s="8">
+        <v>3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>3</v>
+      </c>
+      <c r="P20" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93" t="s">
+      <c r="C21" s="82"/>
+      <c r="D21" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="62" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="K20" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3</v>
-      </c>
-      <c r="M20" s="8">
-        <v>3</v>
-      </c>
-      <c r="N20" s="8">
-        <v>3</v>
-      </c>
-      <c r="O20" s="8">
-        <v>3</v>
-      </c>
-      <c r="P20" s="64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="64" t="s">
-        <v>81</v>
-      </c>
       <c r="K21" s="63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L21" s="8">
         <v>3</v>
@@ -3214,21 +3229,21 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="B22" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="64" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K22" s="63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L22" s="8">
         <v>3</v>
@@ -3247,21 +3262,21 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K23" s="63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L23" s="8">
         <v>3</v>
@@ -3280,21 +3295,21 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="B24" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L24" s="8">
         <v>3</v>
@@ -3314,7 +3329,7 @@
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K25" s="63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L25" s="8">
         <v>2</v>
@@ -3333,21 +3348,21 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L26" s="8">
         <v>2</v>
@@ -3366,21 +3381,21 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
+      <c r="B27" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="62">
         <v>0</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L27" s="8">
         <v>2</v>
@@ -3399,21 +3414,21 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="B28" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="64">
         <v>1</v>
       </c>
       <c r="K28" s="63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L28" s="8">
         <v>3</v>
@@ -3432,21 +3447,21 @@
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="B29" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
       <c r="H29" s="64">
         <v>2</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L29" s="8">
         <v>1</v>
@@ -3465,16 +3480,16 @@
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
+      <c r="B30" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
       <c r="H30" s="64">
         <v>3</v>
       </c>
@@ -3486,12 +3501,12 @@
       <c r="P30" s="64"/>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="91"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="65"/>
       <c r="K31" s="66"/>
       <c r="L31" s="8"/>
@@ -4122,15 +4137,11 @@
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <autoFilter ref="K4:P4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="30">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H14"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
@@ -4147,11 +4158,15 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4180,23 +4195,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="K2" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
@@ -4215,10 +4230,10 @@
     </row>
     <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -4333,7 +4348,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47">
@@ -4509,7 +4524,7 @@
     </row>
     <row r="12" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="56" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
@@ -5328,7 +5343,7 @@
     </row>
     <row r="30" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="56" t="str">
         <f>IF(Data!K28&lt;&gt;"",Data!K28,"")</f>
@@ -7609,24 +7624,24 @@
   <sheetData>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="K2" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -7643,12 +7658,12 @@
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -7709,7 +7724,7 @@
         <v>Student 01</v>
       </c>
       <c r="L7" s="3">
-        <f>IF(Details!L7&lt;&gt;"",SUM(Details!L7:P7),"")</f>
+        <f>IF(Performance!L7&lt;&gt;"",SUM(Performance!L7:P7),"")</f>
         <v>3</v>
       </c>
       <c r="M7" s="34">
@@ -7724,7 +7739,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="47">
@@ -7746,7 +7761,7 @@
         <v>Student 02</v>
       </c>
       <c r="L8" s="3">
-        <f>IF(Details!L8&lt;&gt;"",SUM(Details!L8:P8),"")</f>
+        <f>IF(Performance!L8&lt;&gt;"",SUM(Performance!L8:P8),"")</f>
         <v>10</v>
       </c>
       <c r="M8" s="34">
@@ -7783,7 +7798,7 @@
         <v>Student 03</v>
       </c>
       <c r="L9" s="3">
-        <f>IF(Details!L9&lt;&gt;"",SUM(Details!L9:P9),"")</f>
+        <f>IF(Performance!L9&lt;&gt;"",SUM(Performance!L9:P9),"")</f>
         <v>11</v>
       </c>
       <c r="M9" s="34">
@@ -7819,7 +7834,7 @@
         <v>Student 04</v>
       </c>
       <c r="L10" s="3">
-        <f>IF(Details!L10&lt;&gt;"",SUM(Details!L10:P10),"")</f>
+        <f>IF(Performance!L10&lt;&gt;"",SUM(Performance!L10:P10),"")</f>
         <v>14</v>
       </c>
       <c r="M10" s="34">
@@ -7838,7 +7853,7 @@
         <v>Student 05</v>
       </c>
       <c r="L11" s="3">
-        <f>IF(Details!L11&lt;&gt;"",SUM(Details!L11:P11),"")</f>
+        <f>IF(Performance!L11&lt;&gt;"",SUM(Performance!L11:P11),"")</f>
         <v>9</v>
       </c>
       <c r="M11" s="34">
@@ -7853,14 +7868,14 @@
     <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
         <v>Student 06</v>
       </c>
       <c r="L12" s="3">
-        <f>IF(Details!L12&lt;&gt;"",SUM(Details!L12:P12),"")</f>
+        <f>IF(Performance!L12&lt;&gt;"",SUM(Performance!L12:P12),"")</f>
         <v>8</v>
       </c>
       <c r="M12" s="34">
@@ -7879,7 +7894,7 @@
         <v>Student 07</v>
       </c>
       <c r="L13" s="3">
-        <f>IF(Details!L13&lt;&gt;"",SUM(Details!L13:P13),"")</f>
+        <f>IF(Performance!L13&lt;&gt;"",SUM(Performance!L13:P13),"")</f>
         <v>9</v>
       </c>
       <c r="M13" s="34">
@@ -7898,7 +7913,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>8</v>
@@ -7907,14 +7922,14 @@
         <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IF(Data!K12&lt;&gt;"",Data!K12,"")</f>
         <v>Student 08</v>
       </c>
       <c r="L14" s="3">
-        <f>IF(Details!L14&lt;&gt;"",SUM(Details!L14:P14),"")</f>
+        <f>IF(Performance!L14&lt;&gt;"",SUM(Performance!L14:P14),"")</f>
         <v>9</v>
       </c>
       <c r="M14" s="34">
@@ -7953,7 +7968,7 @@
         <v>Student 09</v>
       </c>
       <c r="L15" s="3">
-        <f>IF(Details!L15&lt;&gt;"",SUM(Details!L15:P15),"")</f>
+        <f>IF(Performance!L15&lt;&gt;"",SUM(Performance!L15:P15),"")</f>
         <v>13</v>
       </c>
       <c r="M15" s="34">
@@ -7992,7 +8007,7 @@
         <v>Student 10</v>
       </c>
       <c r="L16" s="3">
-        <f>IF(Details!L16&lt;&gt;"",SUM(Details!L16:P16),"")</f>
+        <f>IF(Performance!L16&lt;&gt;"",SUM(Performance!L16:P16),"")</f>
         <v>8</v>
       </c>
       <c r="M16" s="34">
@@ -8031,7 +8046,7 @@
         <v>Student 11</v>
       </c>
       <c r="L17" s="3">
-        <f>IF(Details!L17&lt;&gt;"",SUM(Details!L17:P17),"")</f>
+        <f>IF(Performance!L17&lt;&gt;"",SUM(Performance!L17:P17),"")</f>
         <v>15</v>
       </c>
       <c r="M17" s="34">
@@ -8070,7 +8085,7 @@
         <v>Student 12</v>
       </c>
       <c r="L18" s="3">
-        <f>IF(Details!L18&lt;&gt;"",SUM(Details!L18:P18),"")</f>
+        <f>IF(Performance!L18&lt;&gt;"",SUM(Performance!L18:P18),"")</f>
         <v>15</v>
       </c>
       <c r="M18" s="34">
@@ -8106,7 +8121,7 @@
         <v>Student 13</v>
       </c>
       <c r="L19" s="3">
-        <f>IF(Details!L19&lt;&gt;"",SUM(Details!L19:P19),"")</f>
+        <f>IF(Performance!L19&lt;&gt;"",SUM(Performance!L19:P19),"")</f>
         <v>2</v>
       </c>
       <c r="M19" s="34">
@@ -8139,7 +8154,7 @@
         <v>Student 14</v>
       </c>
       <c r="L20" s="3">
-        <f>IF(Details!L20&lt;&gt;"",SUM(Details!L20:P20),"")</f>
+        <f>IF(Performance!L20&lt;&gt;"",SUM(Performance!L20:P20),"")</f>
         <v>15</v>
       </c>
       <c r="M20" s="34">
@@ -8157,7 +8172,7 @@
         <v>Student 15</v>
       </c>
       <c r="L21" s="3">
-        <f>IF(Details!L21&lt;&gt;"",SUM(Details!L21:P21),"")</f>
+        <f>IF(Performance!L21&lt;&gt;"",SUM(Performance!L21:P21),"")</f>
         <v>12</v>
       </c>
       <c r="M21" s="34">
@@ -8171,7 +8186,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="34"/>
       <c r="K22" s="2" t="str">
@@ -8179,7 +8194,7 @@
         <v>Student 16</v>
       </c>
       <c r="L22" s="3">
-        <f>IF(Details!L22&lt;&gt;"",SUM(Details!L22:P22),"")</f>
+        <f>IF(Performance!L22&lt;&gt;"",SUM(Performance!L22:P22),"")</f>
         <v>15</v>
       </c>
       <c r="M22" s="34">
@@ -8199,7 +8214,7 @@
         <v>Student 17</v>
       </c>
       <c r="L23" s="3">
-        <f>IF(Details!L23&lt;&gt;"",SUM(Details!L23:P23),"")</f>
+        <f>IF(Performance!L23&lt;&gt;"",SUM(Performance!L23:P23),"")</f>
         <v>13</v>
       </c>
       <c r="M23" s="34">
@@ -8219,7 +8234,7 @@
         <v>Student 18</v>
       </c>
       <c r="L24" s="3">
-        <f>IF(Details!L24&lt;&gt;"",SUM(Details!L24:P24),"")</f>
+        <f>IF(Performance!L24&lt;&gt;"",SUM(Performance!L24:P24),"")</f>
         <v>12</v>
       </c>
       <c r="M24" s="34">
@@ -8239,7 +8254,7 @@
         <v>Student 19</v>
       </c>
       <c r="L25" s="3">
-        <f>IF(Details!L25&lt;&gt;"",SUM(Details!L25:P25),"")</f>
+        <f>IF(Performance!L25&lt;&gt;"",SUM(Performance!L25:P25),"")</f>
         <v>10</v>
       </c>
       <c r="M25" s="34">
@@ -8259,7 +8274,7 @@
         <v>Student 20</v>
       </c>
       <c r="L26" s="3">
-        <f>IF(Details!L26&lt;&gt;"",SUM(Details!L26:P26),"")</f>
+        <f>IF(Performance!L26&lt;&gt;"",SUM(Performance!L26:P26),"")</f>
         <v>15</v>
       </c>
       <c r="M26" s="34">
@@ -8277,7 +8292,7 @@
         <v>Student 21</v>
       </c>
       <c r="L27" s="3">
-        <f>IF(Details!L27&lt;&gt;"",SUM(Details!L27:P27),"")</f>
+        <f>IF(Performance!L27&lt;&gt;"",SUM(Performance!L27:P27),"")</f>
         <v>11</v>
       </c>
       <c r="M27" s="34">
@@ -8299,7 +8314,7 @@
         <v>Student 22</v>
       </c>
       <c r="L28" s="3">
-        <f>IF(Details!L28&lt;&gt;"",SUM(Details!L28:P28),"")</f>
+        <f>IF(Performance!L28&lt;&gt;"",SUM(Performance!L28:P28),"")</f>
         <v>9</v>
       </c>
       <c r="M28" s="34">
@@ -8317,7 +8332,7 @@
         <v>Student 23</v>
       </c>
       <c r="L29" s="3">
-        <f>IF(Details!L29&lt;&gt;"",SUM(Details!L29:P29),"")</f>
+        <f>IF(Performance!L29&lt;&gt;"",SUM(Performance!L29:P29),"")</f>
         <v>6</v>
       </c>
       <c r="M29" s="34">
@@ -8335,7 +8350,7 @@
         <v>Student 24</v>
       </c>
       <c r="L30" s="3">
-        <f>IF(Details!L30&lt;&gt;"",SUM(Details!L30:P30),"")</f>
+        <f>IF(Performance!L30&lt;&gt;"",SUM(Performance!L30:P30),"")</f>
         <v>15</v>
       </c>
       <c r="M30" s="34">
@@ -8353,7 +8368,7 @@
         <v>Student 25</v>
       </c>
       <c r="L31" s="3">
-        <f>IF(Details!L31&lt;&gt;"",SUM(Details!L31:P31),"")</f>
+        <f>IF(Performance!L31&lt;&gt;"",SUM(Performance!L31:P31),"")</f>
         <v>9</v>
       </c>
       <c r="M31" s="34">
@@ -8371,7 +8386,7 @@
         <v/>
       </c>
       <c r="L32" s="3" t="str">
-        <f>IF(Details!L32&lt;&gt;"",SUM(Details!L32:P32),"")</f>
+        <f>IF(Performance!L32&lt;&gt;"",SUM(Performance!L32:P32),"")</f>
         <v/>
       </c>
       <c r="M32" s="34" t="str">
@@ -8389,7 +8404,7 @@
         <v/>
       </c>
       <c r="L33" s="3" t="str">
-        <f>IF(Details!L33&lt;&gt;"",SUM(Details!L33:P33),"")</f>
+        <f>IF(Performance!L33&lt;&gt;"",SUM(Performance!L33:P33),"")</f>
         <v/>
       </c>
       <c r="M33" s="34" t="str">
@@ -8407,7 +8422,7 @@
         <v/>
       </c>
       <c r="L34" s="3" t="str">
-        <f>IF(Details!L34&lt;&gt;"",SUM(Details!L34:P34),"")</f>
+        <f>IF(Performance!L34&lt;&gt;"",SUM(Performance!L34:P34),"")</f>
         <v/>
       </c>
       <c r="M34" s="34" t="str">
@@ -8425,7 +8440,7 @@
         <v/>
       </c>
       <c r="L35" s="3" t="str">
-        <f>IF(Details!L35&lt;&gt;"",SUM(Details!L35:P35),"")</f>
+        <f>IF(Performance!L35&lt;&gt;"",SUM(Performance!L35:P35),"")</f>
         <v/>
       </c>
       <c r="M35" s="34" t="str">
@@ -8443,7 +8458,7 @@
         <v/>
       </c>
       <c r="L36" s="3" t="str">
-        <f>IF(Details!L36&lt;&gt;"",SUM(Details!L36:P36),"")</f>
+        <f>IF(Performance!L36&lt;&gt;"",SUM(Performance!L36:P36),"")</f>
         <v/>
       </c>
       <c r="M36" s="34" t="str">
@@ -8461,7 +8476,7 @@
         <v/>
       </c>
       <c r="L37" s="3" t="str">
-        <f>IF(Details!L37&lt;&gt;"",SUM(Details!L37:P37),"")</f>
+        <f>IF(Performance!L37&lt;&gt;"",SUM(Performance!L37:P37),"")</f>
         <v/>
       </c>
       <c r="M37" s="34" t="str">
@@ -8479,7 +8494,7 @@
         <v/>
       </c>
       <c r="L38" s="3" t="str">
-        <f>IF(Details!L38&lt;&gt;"",SUM(Details!L38:P38),"")</f>
+        <f>IF(Performance!L38&lt;&gt;"",SUM(Performance!L38:P38),"")</f>
         <v/>
       </c>
       <c r="M38" s="34" t="str">
@@ -8497,7 +8512,7 @@
         <v/>
       </c>
       <c r="L39" s="3" t="str">
-        <f>IF(Details!L39&lt;&gt;"",SUM(Details!L39:P39),"")</f>
+        <f>IF(Performance!L39&lt;&gt;"",SUM(Performance!L39:P39),"")</f>
         <v/>
       </c>
       <c r="M39" s="34" t="str">
@@ -8515,7 +8530,7 @@
         <v/>
       </c>
       <c r="L40" s="3" t="str">
-        <f>IF(Details!L40&lt;&gt;"",SUM(Details!L40:P40),"")</f>
+        <f>IF(Performance!L40&lt;&gt;"",SUM(Performance!L40:P40),"")</f>
         <v/>
       </c>
       <c r="M40" s="34" t="str">
@@ -8533,7 +8548,7 @@
         <v/>
       </c>
       <c r="L41" s="3" t="str">
-        <f>IF(Details!L41&lt;&gt;"",SUM(Details!L41:P41),"")</f>
+        <f>IF(Performance!L41&lt;&gt;"",SUM(Performance!L41:P41),"")</f>
         <v/>
       </c>
       <c r="M41" s="34" t="str">
@@ -8551,7 +8566,7 @@
         <v/>
       </c>
       <c r="L42" s="3" t="str">
-        <f>IF(Details!L42&lt;&gt;"",SUM(Details!L42:P42),"")</f>
+        <f>IF(Performance!L42&lt;&gt;"",SUM(Performance!L42:P42),"")</f>
         <v/>
       </c>
       <c r="M42" s="34" t="str">
@@ -8569,7 +8584,7 @@
         <v/>
       </c>
       <c r="L43" s="3" t="str">
-        <f>IF(Details!L43&lt;&gt;"",SUM(Details!L43:P43),"")</f>
+        <f>IF(Performance!L43&lt;&gt;"",SUM(Performance!L43:P43),"")</f>
         <v/>
       </c>
       <c r="M43" s="34" t="str">
@@ -8587,7 +8602,7 @@
         <v/>
       </c>
       <c r="L44" s="3" t="str">
-        <f>IF(Details!L44&lt;&gt;"",SUM(Details!L44:P44),"")</f>
+        <f>IF(Performance!L44&lt;&gt;"",SUM(Performance!L44:P44),"")</f>
         <v/>
       </c>
       <c r="M44" s="34" t="str">
@@ -8605,7 +8620,7 @@
         <v/>
       </c>
       <c r="L45" s="3" t="str">
-        <f>IF(Details!L45&lt;&gt;"",SUM(Details!L45:P45),"")</f>
+        <f>IF(Performance!L45&lt;&gt;"",SUM(Performance!L45:P45),"")</f>
         <v/>
       </c>
       <c r="M45" s="34" t="str">
@@ -8623,7 +8638,7 @@
         <v/>
       </c>
       <c r="L46" s="3" t="str">
-        <f>IF(Details!L46&lt;&gt;"",SUM(Details!L46:P46),"")</f>
+        <f>IF(Performance!L46&lt;&gt;"",SUM(Performance!L46:P46),"")</f>
         <v/>
       </c>
       <c r="M46" s="34" t="str">
@@ -8641,7 +8656,7 @@
         <v/>
       </c>
       <c r="L47" s="3" t="str">
-        <f>IF(Details!L47&lt;&gt;"",SUM(Details!L47:P47),"")</f>
+        <f>IF(Performance!L47&lt;&gt;"",SUM(Performance!L47:P47),"")</f>
         <v/>
       </c>
       <c r="M47" s="34" t="str">
@@ -8659,7 +8674,7 @@
         <v/>
       </c>
       <c r="L48" s="3" t="str">
-        <f>IF(Details!L48&lt;&gt;"",SUM(Details!L48:P48),"")</f>
+        <f>IF(Performance!L48&lt;&gt;"",SUM(Performance!L48:P48),"")</f>
         <v/>
       </c>
       <c r="M48" s="34" t="str">
@@ -8677,7 +8692,7 @@
         <v/>
       </c>
       <c r="L49" s="3" t="str">
-        <f>IF(Details!L49&lt;&gt;"",SUM(Details!L49:P49),"")</f>
+        <f>IF(Performance!L49&lt;&gt;"",SUM(Performance!L49:P49),"")</f>
         <v/>
       </c>
       <c r="M49" s="34" t="str">
@@ -8695,7 +8710,7 @@
         <v/>
       </c>
       <c r="L50" s="3" t="str">
-        <f>IF(Details!L50&lt;&gt;"",SUM(Details!L50:P50),"")</f>
+        <f>IF(Performance!L50&lt;&gt;"",SUM(Performance!L50:P50),"")</f>
         <v/>
       </c>
       <c r="M50" s="34" t="str">
@@ -8713,7 +8728,7 @@
         <v/>
       </c>
       <c r="L51" s="3" t="str">
-        <f>IF(Details!L51&lt;&gt;"",SUM(Details!L51:P51),"")</f>
+        <f>IF(Performance!L51&lt;&gt;"",SUM(Performance!L51:P51),"")</f>
         <v/>
       </c>
       <c r="M51" s="34" t="str">
@@ -8731,7 +8746,7 @@
         <v/>
       </c>
       <c r="L52" s="3" t="str">
-        <f>IF(Details!L52&lt;&gt;"",SUM(Details!L52:P52),"")</f>
+        <f>IF(Performance!L52&lt;&gt;"",SUM(Performance!L52:P52),"")</f>
         <v/>
       </c>
       <c r="M52" s="34" t="str">
@@ -8749,7 +8764,7 @@
         <v/>
       </c>
       <c r="L53" s="3" t="str">
-        <f>IF(Details!L53&lt;&gt;"",SUM(Details!L53:P53),"")</f>
+        <f>IF(Performance!L53&lt;&gt;"",SUM(Performance!L53:P53),"")</f>
         <v/>
       </c>
       <c r="M53" s="34" t="str">
@@ -8767,7 +8782,7 @@
         <v/>
       </c>
       <c r="L54" s="3" t="str">
-        <f>IF(Details!L54&lt;&gt;"",SUM(Details!L54:P54),"")</f>
+        <f>IF(Performance!L54&lt;&gt;"",SUM(Performance!L54:P54),"")</f>
         <v/>
       </c>
       <c r="M54" s="34" t="str">
@@ -8785,7 +8800,7 @@
         <v/>
       </c>
       <c r="L55" s="3" t="str">
-        <f>IF(Details!L55&lt;&gt;"",SUM(Details!L55:P55),"")</f>
+        <f>IF(Performance!L55&lt;&gt;"",SUM(Performance!L55:P55),"")</f>
         <v/>
       </c>
       <c r="M55" s="34" t="str">
@@ -8803,7 +8818,7 @@
         <v/>
       </c>
       <c r="L56" s="3" t="str">
-        <f>IF(Details!L56&lt;&gt;"",SUM(Details!L56:P56),"")</f>
+        <f>IF(Performance!L56&lt;&gt;"",SUM(Performance!L56:P56),"")</f>
         <v/>
       </c>
       <c r="M56" s="34" t="str">
@@ -8821,7 +8836,7 @@
         <v/>
       </c>
       <c r="L57" s="3" t="str">
-        <f>IF(Details!L57&lt;&gt;"",SUM(Details!L57:P57),"")</f>
+        <f>IF(Performance!L57&lt;&gt;"",SUM(Performance!L57:P57),"")</f>
         <v/>
       </c>
       <c r="M57" s="34" t="str">
@@ -8839,7 +8854,7 @@
         <v/>
       </c>
       <c r="L58" s="3" t="str">
-        <f>IF(Details!L58&lt;&gt;"",SUM(Details!L58:P58),"")</f>
+        <f>IF(Performance!L58&lt;&gt;"",SUM(Performance!L58:P58),"")</f>
         <v/>
       </c>
       <c r="M58" s="34" t="str">
@@ -8857,7 +8872,7 @@
         <v/>
       </c>
       <c r="L59" s="3" t="str">
-        <f>IF(Details!L59&lt;&gt;"",SUM(Details!L59:P59),"")</f>
+        <f>IF(Performance!L59&lt;&gt;"",SUM(Performance!L59:P59),"")</f>
         <v/>
       </c>
       <c r="M59" s="34" t="str">
@@ -8875,7 +8890,7 @@
         <v/>
       </c>
       <c r="L60" s="3" t="str">
-        <f>IF(Details!L60&lt;&gt;"",SUM(Details!L60:P60),"")</f>
+        <f>IF(Performance!L60&lt;&gt;"",SUM(Performance!L60:P60),"")</f>
         <v/>
       </c>
       <c r="M60" s="34" t="str">
@@ -8893,7 +8908,7 @@
         <v/>
       </c>
       <c r="L61" s="3" t="str">
-        <f>IF(Details!L61&lt;&gt;"",SUM(Details!L61:P61),"")</f>
+        <f>IF(Performance!L61&lt;&gt;"",SUM(Performance!L61:P61),"")</f>
         <v/>
       </c>
       <c r="M61" s="34" t="str">
@@ -8911,7 +8926,7 @@
         <v/>
       </c>
       <c r="L62" s="3" t="str">
-        <f>IF(Details!L62&lt;&gt;"",SUM(Details!L62:P62),"")</f>
+        <f>IF(Performance!L62&lt;&gt;"",SUM(Performance!L62:P62),"")</f>
         <v/>
       </c>
       <c r="M62" s="34" t="str">
@@ -8929,7 +8944,7 @@
         <v/>
       </c>
       <c r="L63" s="3" t="str">
-        <f>IF(Details!L63&lt;&gt;"",SUM(Details!L63:P63),"")</f>
+        <f>IF(Performance!L63&lt;&gt;"",SUM(Performance!L63:P63),"")</f>
         <v/>
       </c>
       <c r="M63" s="34" t="str">
@@ -8947,7 +8962,7 @@
         <v/>
       </c>
       <c r="L64" s="3" t="str">
-        <f>IF(Details!L64&lt;&gt;"",SUM(Details!L64:P64),"")</f>
+        <f>IF(Performance!L64&lt;&gt;"",SUM(Performance!L64:P64),"")</f>
         <v/>
       </c>
       <c r="M64" s="34" t="str">
@@ -8965,7 +8980,7 @@
         <v/>
       </c>
       <c r="L65" s="3" t="str">
-        <f>IF(Details!L65&lt;&gt;"",SUM(Details!L65:P65),"")</f>
+        <f>IF(Performance!L65&lt;&gt;"",SUM(Performance!L65:P65),"")</f>
         <v/>
       </c>
       <c r="M65" s="34" t="str">
@@ -8983,7 +8998,7 @@
         <v/>
       </c>
       <c r="L66" s="3" t="str">
-        <f>IF(Details!L66&lt;&gt;"",SUM(Details!L66:P66),"")</f>
+        <f>IF(Performance!L66&lt;&gt;"",SUM(Performance!L66:P66),"")</f>
         <v/>
       </c>
       <c r="M66" s="34" t="str">
@@ -9001,7 +9016,7 @@
         <v/>
       </c>
       <c r="L67" s="3" t="str">
-        <f>IF(Details!L67&lt;&gt;"",SUM(Details!L67:P67),"")</f>
+        <f>IF(Performance!L67&lt;&gt;"",SUM(Performance!L67:P67),"")</f>
         <v/>
       </c>
       <c r="M67" s="34" t="str">
@@ -9019,7 +9034,7 @@
         <v/>
       </c>
       <c r="L68" s="3" t="str">
-        <f>IF(Details!L68&lt;&gt;"",SUM(Details!L68:P68),"")</f>
+        <f>IF(Performance!L68&lt;&gt;"",SUM(Performance!L68:P68),"")</f>
         <v/>
       </c>
       <c r="M68" s="34" t="str">
@@ -9037,7 +9052,7 @@
         <v/>
       </c>
       <c r="L69" s="3" t="str">
-        <f>IF(Details!L69&lt;&gt;"",SUM(Details!L69:P69),"")</f>
+        <f>IF(Performance!L69&lt;&gt;"",SUM(Performance!L69:P69),"")</f>
         <v/>
       </c>
       <c r="M69" s="34" t="str">
@@ -9055,7 +9070,7 @@
         <v/>
       </c>
       <c r="L70" s="3" t="str">
-        <f>IF(Details!L70&lt;&gt;"",SUM(Details!L70:P70),"")</f>
+        <f>IF(Performance!L70&lt;&gt;"",SUM(Performance!L70:P70),"")</f>
         <v/>
       </c>
       <c r="M70" s="34" t="str">
@@ -9073,7 +9088,7 @@
         <v/>
       </c>
       <c r="L71" s="3" t="str">
-        <f>IF(Details!L71&lt;&gt;"",SUM(Details!L71:P71),"")</f>
+        <f>IF(Performance!L71&lt;&gt;"",SUM(Performance!L71:P71),"")</f>
         <v/>
       </c>
       <c r="M71" s="34" t="str">
@@ -9091,7 +9106,7 @@
         <v/>
       </c>
       <c r="L72" s="3" t="str">
-        <f>IF(Details!L72&lt;&gt;"",SUM(Details!L72:P72),"")</f>
+        <f>IF(Performance!L72&lt;&gt;"",SUM(Performance!L72:P72),"")</f>
         <v/>
       </c>
       <c r="M72" s="34" t="str">
@@ -9109,7 +9124,7 @@
         <v/>
       </c>
       <c r="L73" s="3" t="str">
-        <f>IF(Details!L73&lt;&gt;"",SUM(Details!L73:P73),"")</f>
+        <f>IF(Performance!L73&lt;&gt;"",SUM(Performance!L73:P73),"")</f>
         <v/>
       </c>
       <c r="M73" s="34" t="str">
@@ -9127,7 +9142,7 @@
         <v/>
       </c>
       <c r="L74" s="3" t="str">
-        <f>IF(Details!L74&lt;&gt;"",SUM(Details!L74:P74),"")</f>
+        <f>IF(Performance!L74&lt;&gt;"",SUM(Performance!L74:P74),"")</f>
         <v/>
       </c>
       <c r="M74" s="34" t="str">
@@ -9145,7 +9160,7 @@
         <v/>
       </c>
       <c r="L75" s="3" t="str">
-        <f>IF(Details!L75&lt;&gt;"",SUM(Details!L75:P75),"")</f>
+        <f>IF(Performance!L75&lt;&gt;"",SUM(Performance!L75:P75),"")</f>
         <v/>
       </c>
       <c r="M75" s="34" t="str">
@@ -9163,7 +9178,7 @@
         <v/>
       </c>
       <c r="L76" s="3" t="str">
-        <f>IF(Details!L76&lt;&gt;"",SUM(Details!L76:P76),"")</f>
+        <f>IF(Performance!L76&lt;&gt;"",SUM(Performance!L76:P76),"")</f>
         <v/>
       </c>
       <c r="M76" s="34" t="str">
@@ -9181,7 +9196,7 @@
         <v/>
       </c>
       <c r="L77" s="3" t="str">
-        <f>IF(Details!L77&lt;&gt;"",SUM(Details!L77:P77),"")</f>
+        <f>IF(Performance!L77&lt;&gt;"",SUM(Performance!L77:P77),"")</f>
         <v/>
       </c>
       <c r="M77" s="34" t="str">
@@ -9199,7 +9214,7 @@
         <v/>
       </c>
       <c r="L78" s="3" t="str">
-        <f>IF(Details!L78&lt;&gt;"",SUM(Details!L78:P78),"")</f>
+        <f>IF(Performance!L78&lt;&gt;"",SUM(Performance!L78:P78),"")</f>
         <v/>
       </c>
       <c r="M78" s="34" t="str">
@@ -9217,7 +9232,7 @@
         <v/>
       </c>
       <c r="L79" s="3" t="str">
-        <f>IF(Details!L79&lt;&gt;"",SUM(Details!L79:P79),"")</f>
+        <f>IF(Performance!L79&lt;&gt;"",SUM(Performance!L79:P79),"")</f>
         <v/>
       </c>
       <c r="M79" s="34" t="str">
@@ -9235,7 +9250,7 @@
         <v/>
       </c>
       <c r="L80" s="3" t="str">
-        <f>IF(Details!L80&lt;&gt;"",SUM(Details!L80:P80),"")</f>
+        <f>IF(Performance!L80&lt;&gt;"",SUM(Performance!L80:P80),"")</f>
         <v/>
       </c>
       <c r="M80" s="34" t="str">
@@ -9253,7 +9268,7 @@
         <v/>
       </c>
       <c r="L81" s="3" t="str">
-        <f>IF(Details!L81&lt;&gt;"",SUM(Details!L81:P81),"")</f>
+        <f>IF(Performance!L81&lt;&gt;"",SUM(Performance!L81:P81),"")</f>
         <v/>
       </c>
       <c r="M81" s="34" t="str">
@@ -9271,7 +9286,7 @@
         <v/>
       </c>
       <c r="L82" s="3" t="str">
-        <f>IF(Details!L82&lt;&gt;"",SUM(Details!L82:P82),"")</f>
+        <f>IF(Performance!L82&lt;&gt;"",SUM(Performance!L82:P82),"")</f>
         <v/>
       </c>
       <c r="M82" s="34" t="str">
@@ -9289,7 +9304,7 @@
         <v/>
       </c>
       <c r="L83" s="3" t="str">
-        <f>IF(Details!L83&lt;&gt;"",SUM(Details!L83:P83),"")</f>
+        <f>IF(Performance!L83&lt;&gt;"",SUM(Performance!L83:P83),"")</f>
         <v/>
       </c>
       <c r="M83" s="34" t="str">
@@ -9307,7 +9322,7 @@
         <v/>
       </c>
       <c r="L84" s="3" t="str">
-        <f>IF(Details!L84&lt;&gt;"",SUM(Details!L84:P84),"")</f>
+        <f>IF(Performance!L84&lt;&gt;"",SUM(Performance!L84:P84),"")</f>
         <v/>
       </c>
       <c r="M84" s="34" t="str">
@@ -9325,7 +9340,7 @@
         <v/>
       </c>
       <c r="L85" s="3" t="str">
-        <f>IF(Details!L85&lt;&gt;"",SUM(Details!L85:P85),"")</f>
+        <f>IF(Performance!L85&lt;&gt;"",SUM(Performance!L85:P85),"")</f>
         <v/>
       </c>
       <c r="M85" s="34" t="str">
@@ -9343,7 +9358,7 @@
         <v/>
       </c>
       <c r="L86" s="3" t="str">
-        <f>IF(Details!L86&lt;&gt;"",SUM(Details!L86:P86),"")</f>
+        <f>IF(Performance!L86&lt;&gt;"",SUM(Performance!L86:P86),"")</f>
         <v/>
       </c>
       <c r="M86" s="34" t="str">
@@ -9361,7 +9376,7 @@
         <v/>
       </c>
       <c r="L87" s="3" t="str">
-        <f>IF(Details!L87&lt;&gt;"",SUM(Details!L87:P87),"")</f>
+        <f>IF(Performance!L87&lt;&gt;"",SUM(Performance!L87:P87),"")</f>
         <v/>
       </c>
       <c r="M87" s="34" t="str">
@@ -9379,7 +9394,7 @@
         <v/>
       </c>
       <c r="L88" s="3" t="str">
-        <f>IF(Details!L88&lt;&gt;"",SUM(Details!L88:P88),"")</f>
+        <f>IF(Performance!L88&lt;&gt;"",SUM(Performance!L88:P88),"")</f>
         <v/>
       </c>
       <c r="M88" s="34" t="str">
@@ -9397,7 +9412,7 @@
         <v/>
       </c>
       <c r="L89" s="3" t="str">
-        <f>IF(Details!L89&lt;&gt;"",SUM(Details!L89:P89),"")</f>
+        <f>IF(Performance!L89&lt;&gt;"",SUM(Performance!L89:P89),"")</f>
         <v/>
       </c>
       <c r="M89" s="34" t="str">
@@ -9415,7 +9430,7 @@
         <v/>
       </c>
       <c r="L90" s="3" t="str">
-        <f>IF(Details!L90&lt;&gt;"",SUM(Details!L90:P90),"")</f>
+        <f>IF(Performance!L90&lt;&gt;"",SUM(Performance!L90:P90),"")</f>
         <v/>
       </c>
       <c r="M90" s="34" t="str">
@@ -9433,7 +9448,7 @@
         <v/>
       </c>
       <c r="L91" s="3" t="str">
-        <f>IF(Details!L91&lt;&gt;"",SUM(Details!L91:P91),"")</f>
+        <f>IF(Performance!L91&lt;&gt;"",SUM(Performance!L91:P91),"")</f>
         <v/>
       </c>
       <c r="M91" s="34" t="str">
@@ -9451,7 +9466,7 @@
         <v/>
       </c>
       <c r="L92" s="3" t="str">
-        <f>IF(Details!L92&lt;&gt;"",SUM(Details!L92:P92),"")</f>
+        <f>IF(Performance!L92&lt;&gt;"",SUM(Performance!L92:P92),"")</f>
         <v/>
       </c>
       <c r="M92" s="34" t="str">
@@ -9469,7 +9484,7 @@
         <v/>
       </c>
       <c r="L93" s="3" t="str">
-        <f>IF(Details!L93&lt;&gt;"",SUM(Details!L93:P93),"")</f>
+        <f>IF(Performance!L93&lt;&gt;"",SUM(Performance!L93:P93),"")</f>
         <v/>
       </c>
       <c r="M93" s="34" t="str">
@@ -9487,7 +9502,7 @@
         <v/>
       </c>
       <c r="L94" s="3" t="str">
-        <f>IF(Details!L94&lt;&gt;"",SUM(Details!L94:P94),"")</f>
+        <f>IF(Performance!L94&lt;&gt;"",SUM(Performance!L94:P94),"")</f>
         <v/>
       </c>
       <c r="M94" s="34" t="str">
@@ -9505,7 +9520,7 @@
         <v/>
       </c>
       <c r="L95" s="3" t="str">
-        <f>IF(Details!L95&lt;&gt;"",SUM(Details!L95:P95),"")</f>
+        <f>IF(Performance!L95&lt;&gt;"",SUM(Performance!L95:P95),"")</f>
         <v/>
       </c>
       <c r="M95" s="34" t="str">
@@ -9523,7 +9538,7 @@
         <v/>
       </c>
       <c r="L96" s="3" t="str">
-        <f>IF(Details!L96&lt;&gt;"",SUM(Details!L96:P96),"")</f>
+        <f>IF(Performance!L96&lt;&gt;"",SUM(Performance!L96:P96),"")</f>
         <v/>
       </c>
       <c r="M96" s="34" t="str">
@@ -9541,7 +9556,7 @@
         <v/>
       </c>
       <c r="L97" s="3" t="str">
-        <f>IF(Details!L97&lt;&gt;"",SUM(Details!L97:P97),"")</f>
+        <f>IF(Performance!L97&lt;&gt;"",SUM(Performance!L97:P97),"")</f>
         <v/>
       </c>
       <c r="M97" s="34" t="str">
@@ -9559,7 +9574,7 @@
         <v/>
       </c>
       <c r="L98" s="3" t="str">
-        <f>IF(Details!L98&lt;&gt;"",SUM(Details!L98:P98),"")</f>
+        <f>IF(Performance!L98&lt;&gt;"",SUM(Performance!L98:P98),"")</f>
         <v/>
       </c>
       <c r="M98" s="34" t="str">
@@ -9577,7 +9592,7 @@
         <v/>
       </c>
       <c r="L99" s="3" t="str">
-        <f>IF(Details!L99&lt;&gt;"",SUM(Details!L99:P99),"")</f>
+        <f>IF(Performance!L99&lt;&gt;"",SUM(Performance!L99:P99),"")</f>
         <v/>
       </c>
       <c r="M99" s="34" t="str">
@@ -9595,7 +9610,7 @@
         <v/>
       </c>
       <c r="L100" s="3" t="str">
-        <f>IF(Details!L100&lt;&gt;"",SUM(Details!L100:P100),"")</f>
+        <f>IF(Performance!L100&lt;&gt;"",SUM(Performance!L100:P100),"")</f>
         <v/>
       </c>
       <c r="M100" s="34" t="str">
@@ -9613,7 +9628,7 @@
         <v/>
       </c>
       <c r="L101" s="3" t="str">
-        <f>IF(Details!L101&lt;&gt;"",SUM(Details!L101:P101),"")</f>
+        <f>IF(Performance!L101&lt;&gt;"",SUM(Performance!L101:P101),"")</f>
         <v/>
       </c>
       <c r="M101" s="34" t="str">
@@ -9665,25 +9680,25 @@
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="K2" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9701,7 +9716,7 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -9712,7 +9727,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9778,7 +9793,7 @@
         <v>Student 01</v>
       </c>
       <c r="L7" s="50">
-        <f>IF(Details!L7&lt;&gt;"",SUM(Details!L7:P7),"")</f>
+        <f>IF(Performance!L7&lt;&gt;"",SUM(Performance!L7:P7),"")</f>
         <v>3</v>
       </c>
       <c r="M7" s="45">
@@ -9793,7 +9808,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="47">
@@ -9813,7 +9828,7 @@
         <v>Student 02</v>
       </c>
       <c r="L8" s="51">
-        <f>IF(Details!L8&lt;&gt;"",SUM(Details!L8:P8),"")</f>
+        <f>IF(Performance!L8&lt;&gt;"",SUM(Performance!L8:P8),"")</f>
         <v>10</v>
       </c>
       <c r="M8" s="47">
@@ -9848,7 +9863,7 @@
         <v>Student 03</v>
       </c>
       <c r="L9" s="51">
-        <f>IF(Details!L9&lt;&gt;"",SUM(Details!L9:P9),"")</f>
+        <f>IF(Performance!L9&lt;&gt;"",SUM(Performance!L9:P9),"")</f>
         <v>11</v>
       </c>
       <c r="M9" s="47">
@@ -9883,7 +9898,7 @@
         <v>Student 04</v>
       </c>
       <c r="L10" s="51">
-        <f>IF(Details!L10&lt;&gt;"",SUM(Details!L10:P10),"")</f>
+        <f>IF(Performance!L10&lt;&gt;"",SUM(Performance!L10:P10),"")</f>
         <v>14</v>
       </c>
       <c r="M10" s="47">
@@ -9902,7 +9917,7 @@
         <v>Student 05</v>
       </c>
       <c r="L11" s="51">
-        <f>IF(Details!L11&lt;&gt;"",SUM(Details!L11:P11),"")</f>
+        <f>IF(Performance!L11&lt;&gt;"",SUM(Performance!L11:P11),"")</f>
         <v>9</v>
       </c>
       <c r="M11" s="47">
@@ -9917,14 +9932,14 @@
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="56" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
         <v>Student 06</v>
       </c>
       <c r="L12" s="51">
-        <f>IF(Details!L12&lt;&gt;"",SUM(Details!L12:P12),"")</f>
+        <f>IF(Performance!L12&lt;&gt;"",SUM(Performance!L12:P12),"")</f>
         <v>8</v>
       </c>
       <c r="M12" s="47">
@@ -9943,7 +9958,7 @@
         <v>Student 07</v>
       </c>
       <c r="L13" s="51">
-        <f>IF(Details!L13&lt;&gt;"",SUM(Details!L13:P13),"")</f>
+        <f>IF(Performance!L13&lt;&gt;"",SUM(Performance!L13:P13),"")</f>
         <v>9</v>
       </c>
       <c r="M13" s="47">
@@ -9962,7 +9977,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>8</v>
@@ -9971,14 +9986,14 @@
         <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" s="56" t="str">
         <f>IF(Data!K12&lt;&gt;"",Data!K12,"")</f>
         <v>Student 08</v>
       </c>
       <c r="L14" s="51">
-        <f>IF(Details!L14&lt;&gt;"",SUM(Details!L14:P14),"")</f>
+        <f>IF(Performance!L14&lt;&gt;"",SUM(Performance!L14:P14),"")</f>
         <v>9</v>
       </c>
       <c r="M14" s="47">
@@ -9993,7 +10008,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="26">
@@ -10016,7 +10031,7 @@
         <v>Student 09</v>
       </c>
       <c r="L15" s="51">
-        <f>IF(Details!L15&lt;&gt;"",SUM(Details!L15:P15),"")</f>
+        <f>IF(Performance!L15&lt;&gt;"",SUM(Performance!L15:P15),"")</f>
         <v>13</v>
       </c>
       <c r="M15" s="47">
@@ -10031,7 +10046,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="24">
@@ -10054,7 +10069,7 @@
         <v>Student 10</v>
       </c>
       <c r="L16" s="51">
-        <f>IF(Details!L16&lt;&gt;"",SUM(Details!L16:P16),"")</f>
+        <f>IF(Performance!L16&lt;&gt;"",SUM(Performance!L16:P16),"")</f>
         <v>8</v>
       </c>
       <c r="M16" s="47">
@@ -10069,7 +10084,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="24">
@@ -10092,7 +10107,7 @@
         <v>Student 11</v>
       </c>
       <c r="L17" s="51">
-        <f>IF(Details!L17&lt;&gt;"",SUM(Details!L17:P17),"")</f>
+        <f>IF(Performance!L17&lt;&gt;"",SUM(Performance!L17:P17),"")</f>
         <v>15</v>
       </c>
       <c r="M17" s="47">
@@ -10107,7 +10122,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="24">
@@ -10130,7 +10145,7 @@
         <v>Student 12</v>
       </c>
       <c r="L18" s="51">
-        <f>IF(Details!L18&lt;&gt;"",SUM(Details!L18:P18),"")</f>
+        <f>IF(Performance!L18&lt;&gt;"",SUM(Performance!L18:P18),"")</f>
         <v>15</v>
       </c>
       <c r="M18" s="47">
@@ -10144,7 +10159,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="24">
@@ -10167,7 +10182,7 @@
         <v>Student 13</v>
       </c>
       <c r="L19" s="51">
-        <f>IF(Details!L19&lt;&gt;"",SUM(Details!L19:P19),"")</f>
+        <f>IF(Performance!L19&lt;&gt;"",SUM(Performance!L19:P19),"")</f>
         <v>2</v>
       </c>
       <c r="M19" s="47">
@@ -10181,7 +10196,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="24">
@@ -10204,7 +10219,7 @@
         <v>Student 14</v>
       </c>
       <c r="L20" s="51">
-        <f>IF(Details!L20&lt;&gt;"",SUM(Details!L20:P20),"")</f>
+        <f>IF(Performance!L20&lt;&gt;"",SUM(Performance!L20:P20),"")</f>
         <v>15</v>
       </c>
       <c r="M20" s="47">
@@ -10218,7 +10233,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="24">
@@ -10241,7 +10256,7 @@
         <v>Student 15</v>
       </c>
       <c r="L21" s="51">
-        <f>IF(Details!L21&lt;&gt;"",SUM(Details!L21:P21),"")</f>
+        <f>IF(Performance!L21&lt;&gt;"",SUM(Performance!L21:P21),"")</f>
         <v>12</v>
       </c>
       <c r="M21" s="47">
@@ -10255,7 +10270,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="24">
@@ -10278,7 +10293,7 @@
         <v>Student 16</v>
       </c>
       <c r="L22" s="51">
-        <f>IF(Details!L22&lt;&gt;"",SUM(Details!L22:P22),"")</f>
+        <f>IF(Performance!L22&lt;&gt;"",SUM(Performance!L22:P22),"")</f>
         <v>15</v>
       </c>
       <c r="M22" s="47">
@@ -10292,7 +10307,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="24">
@@ -10315,7 +10330,7 @@
         <v>Student 17</v>
       </c>
       <c r="L23" s="51">
-        <f>IF(Details!L23&lt;&gt;"",SUM(Details!L23:P23),"")</f>
+        <f>IF(Performance!L23&lt;&gt;"",SUM(Performance!L23:P23),"")</f>
         <v>13</v>
       </c>
       <c r="M23" s="47">
@@ -10329,7 +10344,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="24">
@@ -10352,7 +10367,7 @@
         <v>Student 18</v>
       </c>
       <c r="L24" s="51">
-        <f>IF(Details!L24&lt;&gt;"",SUM(Details!L24:P24),"")</f>
+        <f>IF(Performance!L24&lt;&gt;"",SUM(Performance!L24:P24),"")</f>
         <v>12</v>
       </c>
       <c r="M24" s="47">
@@ -10366,7 +10381,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="27">
@@ -10389,7 +10404,7 @@
         <v>Student 19</v>
       </c>
       <c r="L25" s="51">
-        <f>IF(Details!L25&lt;&gt;"",SUM(Details!L25:P25),"")</f>
+        <f>IF(Performance!L25&lt;&gt;"",SUM(Performance!L25:P25),"")</f>
         <v>10</v>
       </c>
       <c r="M25" s="47">
@@ -10424,7 +10439,7 @@
         <v>Student 20</v>
       </c>
       <c r="L26" s="51">
-        <f>IF(Details!L26&lt;&gt;"",SUM(Details!L26:P26),"")</f>
+        <f>IF(Performance!L26&lt;&gt;"",SUM(Performance!L26:P26),"")</f>
         <v>15</v>
       </c>
       <c r="M26" s="47">
@@ -10442,7 +10457,7 @@
         <v>Student 21</v>
       </c>
       <c r="L27" s="51">
-        <f>IF(Details!L27&lt;&gt;"",SUM(Details!L27:P27),"")</f>
+        <f>IF(Performance!L27&lt;&gt;"",SUM(Performance!L27:P27),"")</f>
         <v>11</v>
       </c>
       <c r="M27" s="47">
@@ -10456,14 +10471,14 @@
     </row>
     <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K28" s="56" t="str">
         <f>IF(Data!K26&lt;&gt;"",Data!K26,"")</f>
         <v>Student 22</v>
       </c>
       <c r="L28" s="51">
-        <f>IF(Details!L28&lt;&gt;"",SUM(Details!L28:P28),"")</f>
+        <f>IF(Performance!L28&lt;&gt;"",SUM(Performance!L28:P28),"")</f>
         <v>9</v>
       </c>
       <c r="M28" s="47">
@@ -10481,7 +10496,7 @@
         <v>Student 23</v>
       </c>
       <c r="L29" s="51">
-        <f>IF(Details!L29&lt;&gt;"",SUM(Details!L29:P29),"")</f>
+        <f>IF(Performance!L29&lt;&gt;"",SUM(Performance!L29:P29),"")</f>
         <v>6</v>
       </c>
       <c r="M29" s="47">
@@ -10499,7 +10514,7 @@
         <v>Student 24</v>
       </c>
       <c r="L30" s="51">
-        <f>IF(Details!L30&lt;&gt;"",SUM(Details!L30:P30),"")</f>
+        <f>IF(Performance!L30&lt;&gt;"",SUM(Performance!L30:P30),"")</f>
         <v>15</v>
       </c>
       <c r="M30" s="47">
@@ -10517,7 +10532,7 @@
         <v>Student 25</v>
       </c>
       <c r="L31" s="51">
-        <f>IF(Details!L31&lt;&gt;"",SUM(Details!L31:P31),"")</f>
+        <f>IF(Performance!L31&lt;&gt;"",SUM(Performance!L31:P31),"")</f>
         <v>9</v>
       </c>
       <c r="M31" s="47">
@@ -10535,7 +10550,7 @@
         <v/>
       </c>
       <c r="L32" s="51" t="str">
-        <f>IF(Details!L32&lt;&gt;"",SUM(Details!L32:P32),"")</f>
+        <f>IF(Performance!L32&lt;&gt;"",SUM(Performance!L32:P32),"")</f>
         <v/>
       </c>
       <c r="M32" s="47" t="str">
@@ -10553,7 +10568,7 @@
         <v/>
       </c>
       <c r="L33" s="51" t="str">
-        <f>IF(Details!L33&lt;&gt;"",SUM(Details!L33:P33),"")</f>
+        <f>IF(Performance!L33&lt;&gt;"",SUM(Performance!L33:P33),"")</f>
         <v/>
       </c>
       <c r="M33" s="47" t="str">
@@ -10571,7 +10586,7 @@
         <v/>
       </c>
       <c r="L34" s="51" t="str">
-        <f>IF(Details!L34&lt;&gt;"",SUM(Details!L34:P34),"")</f>
+        <f>IF(Performance!L34&lt;&gt;"",SUM(Performance!L34:P34),"")</f>
         <v/>
       </c>
       <c r="M34" s="47" t="str">
@@ -10589,7 +10604,7 @@
         <v/>
       </c>
       <c r="L35" s="51" t="str">
-        <f>IF(Details!L35&lt;&gt;"",SUM(Details!L35:P35),"")</f>
+        <f>IF(Performance!L35&lt;&gt;"",SUM(Performance!L35:P35),"")</f>
         <v/>
       </c>
       <c r="M35" s="47" t="str">
@@ -10607,7 +10622,7 @@
         <v/>
       </c>
       <c r="L36" s="51" t="str">
-        <f>IF(Details!L36&lt;&gt;"",SUM(Details!L36:P36),"")</f>
+        <f>IF(Performance!L36&lt;&gt;"",SUM(Performance!L36:P36),"")</f>
         <v/>
       </c>
       <c r="M36" s="47" t="str">
@@ -10625,7 +10640,7 @@
         <v/>
       </c>
       <c r="L37" s="51" t="str">
-        <f>IF(Details!L37&lt;&gt;"",SUM(Details!L37:P37),"")</f>
+        <f>IF(Performance!L37&lt;&gt;"",SUM(Performance!L37:P37),"")</f>
         <v/>
       </c>
       <c r="M37" s="47" t="str">
@@ -10643,7 +10658,7 @@
         <v/>
       </c>
       <c r="L38" s="51" t="str">
-        <f>IF(Details!L38&lt;&gt;"",SUM(Details!L38:P38),"")</f>
+        <f>IF(Performance!L38&lt;&gt;"",SUM(Performance!L38:P38),"")</f>
         <v/>
       </c>
       <c r="M38" s="47" t="str">
@@ -10661,7 +10676,7 @@
         <v/>
       </c>
       <c r="L39" s="51" t="str">
-        <f>IF(Details!L39&lt;&gt;"",SUM(Details!L39:P39),"")</f>
+        <f>IF(Performance!L39&lt;&gt;"",SUM(Performance!L39:P39),"")</f>
         <v/>
       </c>
       <c r="M39" s="47" t="str">
@@ -10679,7 +10694,7 @@
         <v/>
       </c>
       <c r="L40" s="51" t="str">
-        <f>IF(Details!L40&lt;&gt;"",SUM(Details!L40:P40),"")</f>
+        <f>IF(Performance!L40&lt;&gt;"",SUM(Performance!L40:P40),"")</f>
         <v/>
       </c>
       <c r="M40" s="47" t="str">
@@ -10697,7 +10712,7 @@
         <v/>
       </c>
       <c r="L41" s="51" t="str">
-        <f>IF(Details!L41&lt;&gt;"",SUM(Details!L41:P41),"")</f>
+        <f>IF(Performance!L41&lt;&gt;"",SUM(Performance!L41:P41),"")</f>
         <v/>
       </c>
       <c r="M41" s="47" t="str">
@@ -10715,7 +10730,7 @@
         <v/>
       </c>
       <c r="L42" s="51" t="str">
-        <f>IF(Details!L42&lt;&gt;"",SUM(Details!L42:P42),"")</f>
+        <f>IF(Performance!L42&lt;&gt;"",SUM(Performance!L42:P42),"")</f>
         <v/>
       </c>
       <c r="M42" s="47" t="str">
@@ -10733,7 +10748,7 @@
         <v/>
       </c>
       <c r="L43" s="51" t="str">
-        <f>IF(Details!L43&lt;&gt;"",SUM(Details!L43:P43),"")</f>
+        <f>IF(Performance!L43&lt;&gt;"",SUM(Performance!L43:P43),"")</f>
         <v/>
       </c>
       <c r="M43" s="47" t="str">
@@ -10751,7 +10766,7 @@
         <v/>
       </c>
       <c r="L44" s="51" t="str">
-        <f>IF(Details!L44&lt;&gt;"",SUM(Details!L44:P44),"")</f>
+        <f>IF(Performance!L44&lt;&gt;"",SUM(Performance!L44:P44),"")</f>
         <v/>
       </c>
       <c r="M44" s="47" t="str">
@@ -10769,7 +10784,7 @@
         <v/>
       </c>
       <c r="L45" s="51" t="str">
-        <f>IF(Details!L45&lt;&gt;"",SUM(Details!L45:P45),"")</f>
+        <f>IF(Performance!L45&lt;&gt;"",SUM(Performance!L45:P45),"")</f>
         <v/>
       </c>
       <c r="M45" s="47" t="str">
@@ -10787,7 +10802,7 @@
         <v/>
       </c>
       <c r="L46" s="51" t="str">
-        <f>IF(Details!L46&lt;&gt;"",SUM(Details!L46:P46),"")</f>
+        <f>IF(Performance!L46&lt;&gt;"",SUM(Performance!L46:P46),"")</f>
         <v/>
       </c>
       <c r="M46" s="47" t="str">
@@ -10805,7 +10820,7 @@
         <v/>
       </c>
       <c r="L47" s="51" t="str">
-        <f>IF(Details!L47&lt;&gt;"",SUM(Details!L47:P47),"")</f>
+        <f>IF(Performance!L47&lt;&gt;"",SUM(Performance!L47:P47),"")</f>
         <v/>
       </c>
       <c r="M47" s="47" t="str">
@@ -10823,7 +10838,7 @@
         <v/>
       </c>
       <c r="L48" s="51" t="str">
-        <f>IF(Details!L48&lt;&gt;"",SUM(Details!L48:P48),"")</f>
+        <f>IF(Performance!L48&lt;&gt;"",SUM(Performance!L48:P48),"")</f>
         <v/>
       </c>
       <c r="M48" s="47" t="str">
@@ -10841,7 +10856,7 @@
         <v/>
       </c>
       <c r="L49" s="51" t="str">
-        <f>IF(Details!L49&lt;&gt;"",SUM(Details!L49:P49),"")</f>
+        <f>IF(Performance!L49&lt;&gt;"",SUM(Performance!L49:P49),"")</f>
         <v/>
       </c>
       <c r="M49" s="47" t="str">
@@ -10859,7 +10874,7 @@
         <v/>
       </c>
       <c r="L50" s="51" t="str">
-        <f>IF(Details!L50&lt;&gt;"",SUM(Details!L50:P50),"")</f>
+        <f>IF(Performance!L50&lt;&gt;"",SUM(Performance!L50:P50),"")</f>
         <v/>
       </c>
       <c r="M50" s="47" t="str">
@@ -10877,7 +10892,7 @@
         <v/>
       </c>
       <c r="L51" s="51" t="str">
-        <f>IF(Details!L51&lt;&gt;"",SUM(Details!L51:P51),"")</f>
+        <f>IF(Performance!L51&lt;&gt;"",SUM(Performance!L51:P51),"")</f>
         <v/>
       </c>
       <c r="M51" s="47" t="str">
@@ -10895,7 +10910,7 @@
         <v/>
       </c>
       <c r="L52" s="51" t="str">
-        <f>IF(Details!L52&lt;&gt;"",SUM(Details!L52:P52),"")</f>
+        <f>IF(Performance!L52&lt;&gt;"",SUM(Performance!L52:P52),"")</f>
         <v/>
       </c>
       <c r="M52" s="47" t="str">
@@ -10913,7 +10928,7 @@
         <v/>
       </c>
       <c r="L53" s="51" t="str">
-        <f>IF(Details!L53&lt;&gt;"",SUM(Details!L53:P53),"")</f>
+        <f>IF(Performance!L53&lt;&gt;"",SUM(Performance!L53:P53),"")</f>
         <v/>
       </c>
       <c r="M53" s="47" t="str">
@@ -10931,7 +10946,7 @@
         <v/>
       </c>
       <c r="L54" s="51" t="str">
-        <f>IF(Details!L54&lt;&gt;"",SUM(Details!L54:P54),"")</f>
+        <f>IF(Performance!L54&lt;&gt;"",SUM(Performance!L54:P54),"")</f>
         <v/>
       </c>
       <c r="M54" s="47" t="str">
@@ -10949,7 +10964,7 @@
         <v/>
       </c>
       <c r="L55" s="51" t="str">
-        <f>IF(Details!L55&lt;&gt;"",SUM(Details!L55:P55),"")</f>
+        <f>IF(Performance!L55&lt;&gt;"",SUM(Performance!L55:P55),"")</f>
         <v/>
       </c>
       <c r="M55" s="47" t="str">
@@ -10967,7 +10982,7 @@
         <v/>
       </c>
       <c r="L56" s="51" t="str">
-        <f>IF(Details!L56&lt;&gt;"",SUM(Details!L56:P56),"")</f>
+        <f>IF(Performance!L56&lt;&gt;"",SUM(Performance!L56:P56),"")</f>
         <v/>
       </c>
       <c r="M56" s="47" t="str">
@@ -10985,7 +11000,7 @@
         <v/>
       </c>
       <c r="L57" s="51" t="str">
-        <f>IF(Details!L57&lt;&gt;"",SUM(Details!L57:P57),"")</f>
+        <f>IF(Performance!L57&lt;&gt;"",SUM(Performance!L57:P57),"")</f>
         <v/>
       </c>
       <c r="M57" s="47" t="str">
@@ -11003,7 +11018,7 @@
         <v/>
       </c>
       <c r="L58" s="51" t="str">
-        <f>IF(Details!L58&lt;&gt;"",SUM(Details!L58:P58),"")</f>
+        <f>IF(Performance!L58&lt;&gt;"",SUM(Performance!L58:P58),"")</f>
         <v/>
       </c>
       <c r="M58" s="47" t="str">
@@ -11021,7 +11036,7 @@
         <v/>
       </c>
       <c r="L59" s="51" t="str">
-        <f>IF(Details!L59&lt;&gt;"",SUM(Details!L59:P59),"")</f>
+        <f>IF(Performance!L59&lt;&gt;"",SUM(Performance!L59:P59),"")</f>
         <v/>
       </c>
       <c r="M59" s="47" t="str">
@@ -11039,7 +11054,7 @@
         <v/>
       </c>
       <c r="L60" s="51" t="str">
-        <f>IF(Details!L60&lt;&gt;"",SUM(Details!L60:P60),"")</f>
+        <f>IF(Performance!L60&lt;&gt;"",SUM(Performance!L60:P60),"")</f>
         <v/>
       </c>
       <c r="M60" s="47" t="str">
@@ -11057,7 +11072,7 @@
         <v/>
       </c>
       <c r="L61" s="51" t="str">
-        <f>IF(Details!L61&lt;&gt;"",SUM(Details!L61:P61),"")</f>
+        <f>IF(Performance!L61&lt;&gt;"",SUM(Performance!L61:P61),"")</f>
         <v/>
       </c>
       <c r="M61" s="47" t="str">
@@ -11075,7 +11090,7 @@
         <v/>
       </c>
       <c r="L62" s="51" t="str">
-        <f>IF(Details!L62&lt;&gt;"",SUM(Details!L62:P62),"")</f>
+        <f>IF(Performance!L62&lt;&gt;"",SUM(Performance!L62:P62),"")</f>
         <v/>
       </c>
       <c r="M62" s="47" t="str">
@@ -11093,7 +11108,7 @@
         <v/>
       </c>
       <c r="L63" s="51" t="str">
-        <f>IF(Details!L63&lt;&gt;"",SUM(Details!L63:P63),"")</f>
+        <f>IF(Performance!L63&lt;&gt;"",SUM(Performance!L63:P63),"")</f>
         <v/>
       </c>
       <c r="M63" s="47" t="str">
@@ -11111,7 +11126,7 @@
         <v/>
       </c>
       <c r="L64" s="51" t="str">
-        <f>IF(Details!L64&lt;&gt;"",SUM(Details!L64:P64),"")</f>
+        <f>IF(Performance!L64&lt;&gt;"",SUM(Performance!L64:P64),"")</f>
         <v/>
       </c>
       <c r="M64" s="47" t="str">
@@ -11129,7 +11144,7 @@
         <v/>
       </c>
       <c r="L65" s="51" t="str">
-        <f>IF(Details!L65&lt;&gt;"",SUM(Details!L65:P65),"")</f>
+        <f>IF(Performance!L65&lt;&gt;"",SUM(Performance!L65:P65),"")</f>
         <v/>
       </c>
       <c r="M65" s="47" t="str">
@@ -11147,7 +11162,7 @@
         <v/>
       </c>
       <c r="L66" s="51" t="str">
-        <f>IF(Details!L66&lt;&gt;"",SUM(Details!L66:P66),"")</f>
+        <f>IF(Performance!L66&lt;&gt;"",SUM(Performance!L66:P66),"")</f>
         <v/>
       </c>
       <c r="M66" s="47" t="str">
@@ -11165,7 +11180,7 @@
         <v/>
       </c>
       <c r="L67" s="51" t="str">
-        <f>IF(Details!L67&lt;&gt;"",SUM(Details!L67:P67),"")</f>
+        <f>IF(Performance!L67&lt;&gt;"",SUM(Performance!L67:P67),"")</f>
         <v/>
       </c>
       <c r="M67" s="47" t="str">
@@ -11183,7 +11198,7 @@
         <v/>
       </c>
       <c r="L68" s="51" t="str">
-        <f>IF(Details!L68&lt;&gt;"",SUM(Details!L68:P68),"")</f>
+        <f>IF(Performance!L68&lt;&gt;"",SUM(Performance!L68:P68),"")</f>
         <v/>
       </c>
       <c r="M68" s="47" t="str">
@@ -11201,7 +11216,7 @@
         <v/>
       </c>
       <c r="L69" s="51" t="str">
-        <f>IF(Details!L69&lt;&gt;"",SUM(Details!L69:P69),"")</f>
+        <f>IF(Performance!L69&lt;&gt;"",SUM(Performance!L69:P69),"")</f>
         <v/>
       </c>
       <c r="M69" s="47" t="str">
@@ -11219,7 +11234,7 @@
         <v/>
       </c>
       <c r="L70" s="51" t="str">
-        <f>IF(Details!L70&lt;&gt;"",SUM(Details!L70:P70),"")</f>
+        <f>IF(Performance!L70&lt;&gt;"",SUM(Performance!L70:P70),"")</f>
         <v/>
       </c>
       <c r="M70" s="47" t="str">
@@ -11237,7 +11252,7 @@
         <v/>
       </c>
       <c r="L71" s="51" t="str">
-        <f>IF(Details!L71&lt;&gt;"",SUM(Details!L71:P71),"")</f>
+        <f>IF(Performance!L71&lt;&gt;"",SUM(Performance!L71:P71),"")</f>
         <v/>
       </c>
       <c r="M71" s="47" t="str">
@@ -11255,7 +11270,7 @@
         <v/>
       </c>
       <c r="L72" s="51" t="str">
-        <f>IF(Details!L72&lt;&gt;"",SUM(Details!L72:P72),"")</f>
+        <f>IF(Performance!L72&lt;&gt;"",SUM(Performance!L72:P72),"")</f>
         <v/>
       </c>
       <c r="M72" s="47" t="str">
@@ -11273,7 +11288,7 @@
         <v/>
       </c>
       <c r="L73" s="51" t="str">
-        <f>IF(Details!L73&lt;&gt;"",SUM(Details!L73:P73),"")</f>
+        <f>IF(Performance!L73&lt;&gt;"",SUM(Performance!L73:P73),"")</f>
         <v/>
       </c>
       <c r="M73" s="47" t="str">
@@ -11291,7 +11306,7 @@
         <v/>
       </c>
       <c r="L74" s="51" t="str">
-        <f>IF(Details!L74&lt;&gt;"",SUM(Details!L74:P74),"")</f>
+        <f>IF(Performance!L74&lt;&gt;"",SUM(Performance!L74:P74),"")</f>
         <v/>
       </c>
       <c r="M74" s="47" t="str">
@@ -11309,7 +11324,7 @@
         <v/>
       </c>
       <c r="L75" s="51" t="str">
-        <f>IF(Details!L75&lt;&gt;"",SUM(Details!L75:P75),"")</f>
+        <f>IF(Performance!L75&lt;&gt;"",SUM(Performance!L75:P75),"")</f>
         <v/>
       </c>
       <c r="M75" s="47" t="str">
@@ -11327,7 +11342,7 @@
         <v/>
       </c>
       <c r="L76" s="51" t="str">
-        <f>IF(Details!L76&lt;&gt;"",SUM(Details!L76:P76),"")</f>
+        <f>IF(Performance!L76&lt;&gt;"",SUM(Performance!L76:P76),"")</f>
         <v/>
       </c>
       <c r="M76" s="47" t="str">
@@ -11345,7 +11360,7 @@
         <v/>
       </c>
       <c r="L77" s="51" t="str">
-        <f>IF(Details!L77&lt;&gt;"",SUM(Details!L77:P77),"")</f>
+        <f>IF(Performance!L77&lt;&gt;"",SUM(Performance!L77:P77),"")</f>
         <v/>
       </c>
       <c r="M77" s="47" t="str">
@@ -11363,7 +11378,7 @@
         <v/>
       </c>
       <c r="L78" s="51" t="str">
-        <f>IF(Details!L78&lt;&gt;"",SUM(Details!L78:P78),"")</f>
+        <f>IF(Performance!L78&lt;&gt;"",SUM(Performance!L78:P78),"")</f>
         <v/>
       </c>
       <c r="M78" s="47" t="str">
@@ -11381,7 +11396,7 @@
         <v/>
       </c>
       <c r="L79" s="51" t="str">
-        <f>IF(Details!L79&lt;&gt;"",SUM(Details!L79:P79),"")</f>
+        <f>IF(Performance!L79&lt;&gt;"",SUM(Performance!L79:P79),"")</f>
         <v/>
       </c>
       <c r="M79" s="47" t="str">
@@ -11399,7 +11414,7 @@
         <v/>
       </c>
       <c r="L80" s="51" t="str">
-        <f>IF(Details!L80&lt;&gt;"",SUM(Details!L80:P80),"")</f>
+        <f>IF(Performance!L80&lt;&gt;"",SUM(Performance!L80:P80),"")</f>
         <v/>
       </c>
       <c r="M80" s="47" t="str">
@@ -11417,7 +11432,7 @@
         <v/>
       </c>
       <c r="L81" s="51" t="str">
-        <f>IF(Details!L81&lt;&gt;"",SUM(Details!L81:P81),"")</f>
+        <f>IF(Performance!L81&lt;&gt;"",SUM(Performance!L81:P81),"")</f>
         <v/>
       </c>
       <c r="M81" s="47" t="str">
@@ -11435,7 +11450,7 @@
         <v/>
       </c>
       <c r="L82" s="51" t="str">
-        <f>IF(Details!L82&lt;&gt;"",SUM(Details!L82:P82),"")</f>
+        <f>IF(Performance!L82&lt;&gt;"",SUM(Performance!L82:P82),"")</f>
         <v/>
       </c>
       <c r="M82" s="47" t="str">
@@ -11453,7 +11468,7 @@
         <v/>
       </c>
       <c r="L83" s="51" t="str">
-        <f>IF(Details!L83&lt;&gt;"",SUM(Details!L83:P83),"")</f>
+        <f>IF(Performance!L83&lt;&gt;"",SUM(Performance!L83:P83),"")</f>
         <v/>
       </c>
       <c r="M83" s="47" t="str">
@@ -11471,7 +11486,7 @@
         <v/>
       </c>
       <c r="L84" s="51" t="str">
-        <f>IF(Details!L84&lt;&gt;"",SUM(Details!L84:P84),"")</f>
+        <f>IF(Performance!L84&lt;&gt;"",SUM(Performance!L84:P84),"")</f>
         <v/>
       </c>
       <c r="M84" s="47" t="str">
@@ -11489,7 +11504,7 @@
         <v/>
       </c>
       <c r="L85" s="51" t="str">
-        <f>IF(Details!L85&lt;&gt;"",SUM(Details!L85:P85),"")</f>
+        <f>IF(Performance!L85&lt;&gt;"",SUM(Performance!L85:P85),"")</f>
         <v/>
       </c>
       <c r="M85" s="47" t="str">
@@ -11507,7 +11522,7 @@
         <v/>
       </c>
       <c r="L86" s="51" t="str">
-        <f>IF(Details!L86&lt;&gt;"",SUM(Details!L86:P86),"")</f>
+        <f>IF(Performance!L86&lt;&gt;"",SUM(Performance!L86:P86),"")</f>
         <v/>
       </c>
       <c r="M86" s="47" t="str">
@@ -11525,7 +11540,7 @@
         <v/>
       </c>
       <c r="L87" s="51" t="str">
-        <f>IF(Details!L87&lt;&gt;"",SUM(Details!L87:P87),"")</f>
+        <f>IF(Performance!L87&lt;&gt;"",SUM(Performance!L87:P87),"")</f>
         <v/>
       </c>
       <c r="M87" s="47" t="str">
@@ -11543,7 +11558,7 @@
         <v/>
       </c>
       <c r="L88" s="51" t="str">
-        <f>IF(Details!L88&lt;&gt;"",SUM(Details!L88:P88),"")</f>
+        <f>IF(Performance!L88&lt;&gt;"",SUM(Performance!L88:P88),"")</f>
         <v/>
       </c>
       <c r="M88" s="47" t="str">
@@ -11561,7 +11576,7 @@
         <v/>
       </c>
       <c r="L89" s="51" t="str">
-        <f>IF(Details!L89&lt;&gt;"",SUM(Details!L89:P89),"")</f>
+        <f>IF(Performance!L89&lt;&gt;"",SUM(Performance!L89:P89),"")</f>
         <v/>
       </c>
       <c r="M89" s="47" t="str">
@@ -11579,7 +11594,7 @@
         <v/>
       </c>
       <c r="L90" s="51" t="str">
-        <f>IF(Details!L90&lt;&gt;"",SUM(Details!L90:P90),"")</f>
+        <f>IF(Performance!L90&lt;&gt;"",SUM(Performance!L90:P90),"")</f>
         <v/>
       </c>
       <c r="M90" s="47" t="str">
@@ -11597,7 +11612,7 @@
         <v/>
       </c>
       <c r="L91" s="51" t="str">
-        <f>IF(Details!L91&lt;&gt;"",SUM(Details!L91:P91),"")</f>
+        <f>IF(Performance!L91&lt;&gt;"",SUM(Performance!L91:P91),"")</f>
         <v/>
       </c>
       <c r="M91" s="47" t="str">
@@ -11615,7 +11630,7 @@
         <v/>
       </c>
       <c r="L92" s="51" t="str">
-        <f>IF(Details!L92&lt;&gt;"",SUM(Details!L92:P92),"")</f>
+        <f>IF(Performance!L92&lt;&gt;"",SUM(Performance!L92:P92),"")</f>
         <v/>
       </c>
       <c r="M92" s="47" t="str">
@@ -11633,7 +11648,7 @@
         <v/>
       </c>
       <c r="L93" s="51" t="str">
-        <f>IF(Details!L93&lt;&gt;"",SUM(Details!L93:P93),"")</f>
+        <f>IF(Performance!L93&lt;&gt;"",SUM(Performance!L93:P93),"")</f>
         <v/>
       </c>
       <c r="M93" s="47" t="str">
@@ -11651,7 +11666,7 @@
         <v/>
       </c>
       <c r="L94" s="51" t="str">
-        <f>IF(Details!L94&lt;&gt;"",SUM(Details!L94:P94),"")</f>
+        <f>IF(Performance!L94&lt;&gt;"",SUM(Performance!L94:P94),"")</f>
         <v/>
       </c>
       <c r="M94" s="47" t="str">
@@ -11669,7 +11684,7 @@
         <v/>
       </c>
       <c r="L95" s="51" t="str">
-        <f>IF(Details!L95&lt;&gt;"",SUM(Details!L95:P95),"")</f>
+        <f>IF(Performance!L95&lt;&gt;"",SUM(Performance!L95:P95),"")</f>
         <v/>
       </c>
       <c r="M95" s="47" t="str">
@@ -11687,7 +11702,7 @@
         <v/>
       </c>
       <c r="L96" s="51" t="str">
-        <f>IF(Details!L96&lt;&gt;"",SUM(Details!L96:P96),"")</f>
+        <f>IF(Performance!L96&lt;&gt;"",SUM(Performance!L96:P96),"")</f>
         <v/>
       </c>
       <c r="M96" s="47" t="str">
@@ -11705,7 +11720,7 @@
         <v/>
       </c>
       <c r="L97" s="51" t="str">
-        <f>IF(Details!L97&lt;&gt;"",SUM(Details!L97:P97),"")</f>
+        <f>IF(Performance!L97&lt;&gt;"",SUM(Performance!L97:P97),"")</f>
         <v/>
       </c>
       <c r="M97" s="47" t="str">
@@ -11723,7 +11738,7 @@
         <v/>
       </c>
       <c r="L98" s="51" t="str">
-        <f>IF(Details!L98&lt;&gt;"",SUM(Details!L98:P98),"")</f>
+        <f>IF(Performance!L98&lt;&gt;"",SUM(Performance!L98:P98),"")</f>
         <v/>
       </c>
       <c r="M98" s="47" t="str">
@@ -11741,7 +11756,7 @@
         <v/>
       </c>
       <c r="L99" s="51" t="str">
-        <f>IF(Details!L99&lt;&gt;"",SUM(Details!L99:P99),"")</f>
+        <f>IF(Performance!L99&lt;&gt;"",SUM(Performance!L99:P99),"")</f>
         <v/>
       </c>
       <c r="M99" s="47" t="str">
@@ -11759,7 +11774,7 @@
         <v/>
       </c>
       <c r="L100" s="51" t="str">
-        <f>IF(Details!L100&lt;&gt;"",SUM(Details!L100:P100),"")</f>
+        <f>IF(Performance!L100&lt;&gt;"",SUM(Performance!L100:P100),"")</f>
         <v/>
       </c>
       <c r="M100" s="47" t="str">
@@ -11777,7 +11792,7 @@
         <v/>
       </c>
       <c r="L101" s="67" t="str">
-        <f>IF(Details!L101&lt;&gt;"",SUM(Details!L101:P101),"")</f>
+        <f>IF(Performance!L101&lt;&gt;"",SUM(Performance!L101:P101),"")</f>
         <v/>
       </c>
       <c r="M101" s="49" t="str">

--- a/GREAT/GREAT-Repeated-Example.xlsx
+++ b/GREAT/GREAT-Repeated-Example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{9C334795-11BC-4225-8DE6-12261517B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{946AD330-B879-4F82-94EF-97F612FF99F3}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{9C334795-11BC-4225-8DE6-12261517B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{432E57A5-794E-42F1-92C9-637FC8600115}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2126,10 +2126,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
